--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ea46e9ef4a311cd/Documents/GitHub/Ayyamperumal-Preethi-webdev-project/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preet\OneDrive\Documents\GitHub\Ayyamperumal-Preethi-webdev-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Customer list for Manager to block</t>
   </si>
@@ -65,9 +66,6 @@
     <t>Followers R</t>
   </si>
   <si>
-    <t>Following CRUD</t>
-  </si>
-  <si>
     <t>Address CRUD</t>
   </si>
   <si>
@@ -120,6 +118,39 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Create Category Database from Taxanomy API</t>
+  </si>
+  <si>
+    <t>Add itemID to database only when user clicks addtoCart</t>
+  </si>
+  <si>
+    <t>Populate categories and subcategories in home page and in search box</t>
+  </si>
+  <si>
+    <t>Paginated Search when clicking categories using Paginated API</t>
+  </si>
+  <si>
+    <t>Firstlevel_ID</t>
+  </si>
+  <si>
+    <t>SecondLevel_ID</t>
+  </si>
+  <si>
+    <t>ThirdLevel_ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replying to other's reviews </t>
+  </si>
+  <si>
+    <t>discovering other users</t>
+  </si>
+  <si>
+    <t>Following CRUD Request</t>
   </si>
 </sst>
 </file>
@@ -182,16 +213,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -219,6 +251,56 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -532,291 +614,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B77"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="135" customWidth="1"/>
+    <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="4">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
       <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="4">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="4">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="4">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="4">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="4">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="4">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="4">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>28</v>
       </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
-        <v>31</v>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="4">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <sortState ref="A2:D82">
+    <sortCondition ref="D2:D82"/>
+  </sortState>
+  <conditionalFormatting sqref="B1:B10 B14 B16:B1048576">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11 B13">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:B48 B51:B69 B71:B73 B76:B78 B2:B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:B52 B55:B73 B75:B77 B80:B82 B2:B47">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>